--- a/myapp/files/9_MethodComparePercent/Scenario 332.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 332.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>345</v>
+        <v>4901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.493378714641192</v>
+        <v>1.00766698672413</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.77777777777778</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5508</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13246883551857</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9975</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.05090352837649</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.27659574468085</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8885</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.82679477189224</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.27659574468085</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5247</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.07880609658059</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4489</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.922957988860356</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>8156</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.67690919072066</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.27659574468085</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>16544</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.40151859383064</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.40425531914894</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15160</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.11696215440476</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.5625</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.82978723404255</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>13541</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.78408868949835</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.97872340425532</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8988</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.84797202135818</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.5625</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.12765957446809</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>4284</v>
+        <v>49801</v>
       </c>
       <c r="F14" t="n">
-        <v>6.12647656093585</v>
+        <v>10.2393029189652</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1049,10 +1049,10 @@
         <v>4.6875</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>5.55555555555556</v>
+        <v>7.65957446808511</v>
       </c>
       <c r="K14" t="n">
         <v>9</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>4406</v>
+        <v>36990</v>
       </c>
       <c r="F15" t="n">
-        <v>6.30094671509882</v>
+        <v>7.60530541500213</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1087,10 +1087,10 @@
         <v>7.8125</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>11.1111111111111</v>
+        <v>9.36170212765957</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6485</v>
+        <v>20389</v>
       </c>
       <c r="F16" t="n">
-        <v>9.27408975202357</v>
+        <v>4.19206737243791</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>3.125</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>11.1111111111111</v>
+        <v>5.95744680851064</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>3456</v>
+        <v>10153</v>
       </c>
       <c r="F18" t="n">
-        <v>4.94236764579698</v>
+        <v>2.08750110512346</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.5625</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>2.77777777777778</v>
+        <v>3.40425531914894</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>4374</v>
+        <v>44816</v>
       </c>
       <c r="F19" t="n">
-        <v>6.25518405171181</v>
+        <v>9.21436516568628</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>4.6875</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>2.77777777777778</v>
+        <v>8.08510638297872</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1295</v>
+        <v>49626</v>
       </c>
       <c r="F20" t="n">
-        <v>1.85195778394303</v>
+        <v>10.2033221553094</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
@@ -1277,10 +1277,10 @@
         <v>26.5625</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>8.33333333333333</v>
+        <v>11.9148936170213</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>437</v>
+        <v>40935</v>
       </c>
       <c r="F21" t="n">
-        <v>0.624946371878843</v>
+        <v>8.41641462998411</v>
       </c>
       <c r="G21" t="n">
         <v>12</v>
@@ -1315,10 +1315,10 @@
         <v>18.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J21" t="n">
-        <v>2.77777777777778</v>
+        <v>8.93617021276596</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -1344,7 +1344,7 @@
         <v>2184</v>
       </c>
       <c r="F22" t="n">
-        <v>3.12330177616337</v>
+        <v>0.449039930423483</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.77777777777778</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3159</v>
+        <v>7471</v>
       </c>
       <c r="F23" t="n">
-        <v>4.51763292623631</v>
+        <v>1.53607020155396</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -1391,10 +1391,10 @@
         <v>4.6875</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.77777777777778</v>
+        <v>1.70212765957447</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>8514</v>
+        <v>22556</v>
       </c>
       <c r="F24" t="n">
-        <v>12.1757286274061</v>
+        <v>4.6376120286777</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1429,10 +1429,10 @@
         <v>6.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>8.33333333333333</v>
+        <v>4.25531914893617</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>11291</v>
+        <v>37050</v>
       </c>
       <c r="F25" t="n">
-        <v>16.14706975946</v>
+        <v>7.61764167682695</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1467,10 +1467,10 @@
         <v>9.375</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
-        <v>13.8888888888889</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>19696</v>
+        <v>63006</v>
       </c>
       <c r="F26" t="n">
-        <v>28.1669193147041</v>
+        <v>12.9543085422445</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1505,16 +1505,16 @@
         <v>9.375</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>25</v>
+        <v>11.063829787234</v>
       </c>
       <c r="K26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>21.875</v>
+        <v>20.3125</v>
       </c>
     </row>
   </sheetData>
